--- a/landlibrary/importers/Rural21/20170228 - Rural21 - Land Library Metadata_EN_5-12.xlsx
+++ b/landlibrary/importers/Rural21/20170228 - Rural21 - Land Library Metadata_EN_5-12.xlsx
@@ -15,7 +15,7 @@
     <sheet name="20170228 - Rural21 - Land Libra" sheetId="1" r:id="rId1"/>
     <sheet name="notes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1029">
   <si>
     <t>Abstract/Description</t>
   </si>
@@ -3225,6 +3225,18 @@
   </si>
   <si>
     <t>Martin Noltze; Stefan Schwarze; Matin Qaim</t>
+  </si>
+  <si>
+    <t>http://www.rural21.com/fileadmin/downloads/2011/divers/R21_2011_1_Demont_Rizzotto.pdf</t>
+  </si>
+  <si>
+    <t>private://feeds/Rural21_2011-02_en.jpg</t>
+  </si>
+  <si>
+    <t>private://feeds/Rural21_2010-01_en.jpg</t>
+  </si>
+  <si>
+    <t>private://feeds/Rural21_2011-01_en.jpg</t>
   </si>
 </sst>
 </file>
@@ -3325,12 +3337,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3346,7 +3364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3414,6 +3432,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3698,9 +3725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S92" sqref="S92:S105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -3721,7 +3748,7 @@
     <col min="16" max="16" width="22.19921875" style="1" customWidth="1"/>
     <col min="17" max="17" width="56.796875" style="10" customWidth="1"/>
     <col min="18" max="18" width="22.69921875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="30.69921875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="43.59765625" style="1" customWidth="1"/>
     <col min="20" max="20" width="20" style="1" customWidth="1"/>
     <col min="21" max="16384" width="10.796875" style="1"/>
   </cols>
@@ -6346,7 +6373,9 @@
       <c r="Q44" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="R44" s="8"/>
+      <c r="R44" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="S44" s="8" t="s">
         <v>303</v>
       </c>
@@ -8145,6 +8174,10 @@
       <c r="Q74" s="8" t="s">
         <v>478</v>
       </c>
+      <c r="R74" s="24"/>
+      <c r="S74" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T74" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8201,6 +8234,10 @@
       <c r="Q75" s="8" t="s">
         <v>485</v>
       </c>
+      <c r="R75" s="24"/>
+      <c r="S75" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T75" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8260,6 +8297,9 @@
       <c r="R76" s="8" t="s">
         <v>487</v>
       </c>
+      <c r="S76" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T76" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8319,6 +8359,9 @@
       <c r="R77" s="8" t="s">
         <v>491</v>
       </c>
+      <c r="S77" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T77" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8375,6 +8418,9 @@
       <c r="R78" s="8" t="s">
         <v>493</v>
       </c>
+      <c r="S78" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T78" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8432,6 +8478,9 @@
       <c r="R79" s="8" t="s">
         <v>498</v>
       </c>
+      <c r="S79" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T79" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8489,6 +8538,9 @@
       <c r="R80" s="8" t="s">
         <v>500</v>
       </c>
+      <c r="S80" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T80" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8546,6 +8598,9 @@
       <c r="R81" s="8" t="s">
         <v>502</v>
       </c>
+      <c r="S81" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T81" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8602,6 +8657,9 @@
       </c>
       <c r="R82" s="8" t="s">
         <v>505</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>1026</v>
       </c>
       <c r="T82" s="1" t="s">
         <v>1005</v>
@@ -8662,6 +8720,9 @@
       <c r="R83" s="8" t="s">
         <v>508</v>
       </c>
+      <c r="S83" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T83" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8719,6 +8780,9 @@
       <c r="R84" s="8" t="s">
         <v>511</v>
       </c>
+      <c r="S84" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T84" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8776,6 +8840,9 @@
       <c r="R85" s="8" t="s">
         <v>516</v>
       </c>
+      <c r="S85" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T85" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8833,6 +8900,9 @@
       <c r="R86" s="8" t="s">
         <v>519</v>
       </c>
+      <c r="S86" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T86" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8884,7 +8954,11 @@
       <c r="P87" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="R87" s="8"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="26"/>
+      <c r="S87" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T87" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8938,7 +9012,10 @@
       <c r="Q88" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="R88" s="8"/>
+      <c r="R88" s="26"/>
+      <c r="S88" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T88" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8995,6 +9072,9 @@
       <c r="R89" s="8" t="s">
         <v>524</v>
       </c>
+      <c r="S89" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T89" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9052,6 +9132,9 @@
       <c r="R90" s="8" t="s">
         <v>529</v>
       </c>
+      <c r="S90" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T90" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9102,6 +9185,9 @@
       <c r="R91" s="8" t="s">
         <v>532</v>
       </c>
+      <c r="S91" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="T91" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9161,6 +9247,9 @@
       <c r="R92" s="8" t="s">
         <v>550</v>
       </c>
+      <c r="S92" s="1" t="s">
+        <v>1028</v>
+      </c>
       <c r="T92" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9217,6 +9306,9 @@
       <c r="R93" s="8" t="s">
         <v>555</v>
       </c>
+      <c r="S93" s="1" t="s">
+        <v>1028</v>
+      </c>
       <c r="T93" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9274,6 +9366,9 @@
       <c r="R94" s="8" t="s">
         <v>559</v>
       </c>
+      <c r="S94" s="1" t="s">
+        <v>1028</v>
+      </c>
       <c r="T94" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9328,6 +9423,9 @@
       <c r="R95" s="8" t="s">
         <v>562</v>
       </c>
+      <c r="S95" s="1" t="s">
+        <v>1028</v>
+      </c>
       <c r="T95" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9382,6 +9480,9 @@
       <c r="R96" s="8" t="s">
         <v>566</v>
       </c>
+      <c r="S96" s="1" t="s">
+        <v>1028</v>
+      </c>
       <c r="T96" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9439,6 +9540,9 @@
       <c r="R97" s="8" t="s">
         <v>569</v>
       </c>
+      <c r="S97" s="1" t="s">
+        <v>1028</v>
+      </c>
       <c r="T97" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9496,6 +9600,9 @@
       <c r="R98" s="8" t="s">
         <v>573</v>
       </c>
+      <c r="S98" s="1" t="s">
+        <v>1028</v>
+      </c>
       <c r="T98" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9547,6 +9654,9 @@
       <c r="R99" s="8" t="s">
         <v>577</v>
       </c>
+      <c r="S99" s="1" t="s">
+        <v>1028</v>
+      </c>
       <c r="T99" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9603,6 +9713,9 @@
       </c>
       <c r="R100" s="8" t="s">
         <v>580</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>1028</v>
       </c>
       <c r="T100" s="1" t="s">
         <v>1005</v>
@@ -9658,6 +9771,9 @@
       <c r="R101" s="8" t="s">
         <v>584</v>
       </c>
+      <c r="S101" s="1" t="s">
+        <v>1028</v>
+      </c>
       <c r="T101" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9715,6 +9831,9 @@
       <c r="R102" s="8" t="s">
         <v>588</v>
       </c>
+      <c r="S102" s="1" t="s">
+        <v>1028</v>
+      </c>
       <c r="T102" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9772,6 +9891,9 @@
       <c r="R103" s="8" t="s">
         <v>590</v>
       </c>
+      <c r="S103" s="1" t="s">
+        <v>1028</v>
+      </c>
       <c r="T103" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9823,7 +9945,12 @@
       <c r="Q104" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="R104" s="8"/>
+      <c r="R104" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>1028</v>
+      </c>
       <c r="T104" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9874,7 +10001,10 @@
       <c r="Q105" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="R105" s="8"/>
+      <c r="R105" s="26"/>
+      <c r="S105" s="1" t="s">
+        <v>1028</v>
+      </c>
       <c r="T105" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9932,6 +10062,9 @@
       <c r="R106" s="8" t="s">
         <v>612</v>
       </c>
+      <c r="S106" s="1" t="s">
+        <v>1027</v>
+      </c>
       <c r="T106" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9991,6 +10124,9 @@
       <c r="R107" s="8" t="s">
         <v>617</v>
       </c>
+      <c r="S107" s="1" t="s">
+        <v>1027</v>
+      </c>
       <c r="T107" s="1" t="s">
         <v>1005</v>
       </c>
@@ -10050,6 +10186,9 @@
       <c r="R108" s="8" t="s">
         <v>621</v>
       </c>
+      <c r="S108" s="1" t="s">
+        <v>1027</v>
+      </c>
       <c r="T108" s="1" t="s">
         <v>1005</v>
       </c>
@@ -10107,6 +10246,9 @@
       <c r="R109" s="8" t="s">
         <v>625</v>
       </c>
+      <c r="S109" s="1" t="s">
+        <v>1027</v>
+      </c>
       <c r="T109" s="1" t="s">
         <v>1005</v>
       </c>
@@ -10166,6 +10308,9 @@
       <c r="R110" s="8" t="s">
         <v>628</v>
       </c>
+      <c r="S110" s="1" t="s">
+        <v>1027</v>
+      </c>
       <c r="T110" s="1" t="s">
         <v>1005</v>
       </c>
@@ -10223,6 +10368,9 @@
       <c r="R111" s="8" t="s">
         <v>632</v>
       </c>
+      <c r="S111" s="1" t="s">
+        <v>1027</v>
+      </c>
       <c r="T111" s="1" t="s">
         <v>1005</v>
       </c>
@@ -10280,6 +10428,9 @@
       <c r="R112" s="8" t="s">
         <v>636</v>
       </c>
+      <c r="S112" s="1" t="s">
+        <v>1027</v>
+      </c>
       <c r="T112" s="1" t="s">
         <v>1005</v>
       </c>
@@ -10337,6 +10488,9 @@
       <c r="R113" s="8" t="s">
         <v>639</v>
       </c>
+      <c r="S113" s="1" t="s">
+        <v>1027</v>
+      </c>
       <c r="T113" s="1" t="s">
         <v>1005</v>
       </c>
@@ -10393,6 +10547,9 @@
       </c>
       <c r="R114" s="8" t="s">
         <v>643</v>
+      </c>
+      <c r="S114" s="1" t="s">
+        <v>1027</v>
       </c>
       <c r="T114" s="1" t="s">
         <v>1005</v>
@@ -10451,6 +10608,9 @@
       <c r="R115" s="8" t="s">
         <v>647</v>
       </c>
+      <c r="S115" s="1" t="s">
+        <v>1027</v>
+      </c>
       <c r="T115" s="1" t="s">
         <v>1005</v>
       </c>
@@ -10504,6 +10664,9 @@
       </c>
       <c r="R116" s="8" t="s">
         <v>649</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>1027</v>
       </c>
       <c r="T116" s="1" t="s">
         <v>1005</v>
@@ -10818,10 +10981,12 @@
     <hyperlink ref="G89" r:id="rId304" display="www.ttz-bremerhaven.de"/>
     <hyperlink ref="G90" r:id="rId305" display="www.ttz-bremerhaven.de"/>
     <hyperlink ref="G91" r:id="rId306" display="www.africaportal.org"/>
+    <hyperlink ref="R44" r:id="rId307"/>
+    <hyperlink ref="R104" r:id="rId308"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId307"/>
-  <legacyDrawing r:id="rId308"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId309"/>
+  <legacyDrawing r:id="rId310"/>
 </worksheet>
 </file>
 

--- a/landlibrary/importers/Rural21/20170228 - Rural21 - Land Library Metadata_EN_5-12.xlsx
+++ b/landlibrary/importers/Rural21/20170228 - Rural21 - Land Library Metadata_EN_5-12.xlsx
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="1026">
   <si>
     <t>Abstract/Description</t>
   </si>
@@ -2429,9 +2429,6 @@
   </si>
   <si>
     <t>farmers; farming systems; rural development; sustainable development; agriculture; agricultural land management</t>
-  </si>
-  <si>
-    <t>food security; agriculture; agricultural land management; land governance</t>
   </si>
   <si>
     <t>Senegal</t>
@@ -3074,9 +3071,6 @@
     <t>Rural21-Vol:45-Nr:2/2011-Article:13</t>
   </si>
   <si>
-    <t>Rural21-Vol:45-Nr:2/2011-Article:14</t>
-  </si>
-  <si>
     <t>Rural21-Vol:45-Nr:2/2011-Article:15</t>
   </si>
   <si>
@@ -3177,9 +3171,6 @@
   </si>
   <si>
     <t>Werner Heuler-Neuhaus; Florent Dirk Thies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In response to the 2008 food crisis, Senegal developed an ambitious food self-sufficiency programme which aims to entirely cover national rice consumption needs with local rice by 2015, mainly through massive investments in existing and new rice perimeters in the Senegal River Valley (SRV). </t>
   </si>
   <si>
     <t>Klaus Töpfer; Alexander Müller; Jes Weigelt</t>
@@ -3364,7 +3355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3435,9 +3426,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3723,11 +3711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T116"/>
+  <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S92" sqref="S92:S105"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -3761,7 +3749,7 @@
         <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
@@ -3770,16 +3758,16 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>883</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>7</v>
@@ -3791,16 +3779,16 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>884</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>885</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>18</v>
@@ -3809,7 +3797,7 @@
         <v>6</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>14</v>
@@ -3823,7 +3811,7 @@
         <v>55</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>41</v>
@@ -3835,10 +3823,10 @@
         <v>57</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>35</v>
@@ -3856,7 +3844,7 @@
         <v>652</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>656</v>
@@ -3874,7 +3862,7 @@
         <v>60</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="124.8">
@@ -3885,7 +3873,7 @@
         <v>55</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>42</v>
@@ -3895,10 +3883,10 @@
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>35</v>
@@ -3916,7 +3904,7 @@
         <v>655</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>658</v>
@@ -3934,7 +3922,7 @@
         <v>64</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="156">
@@ -3945,7 +3933,7 @@
         <v>55</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>43</v>
@@ -3958,7 +3946,7 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>35</v>
@@ -3976,7 +3964,7 @@
         <v>655</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>656</v>
@@ -3994,7 +3982,7 @@
         <v>69</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="93.6">
@@ -4005,7 +3993,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>44</v>
@@ -4017,10 +4005,10 @@
         <v>71</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>35</v>
@@ -4032,10 +4020,10 @@
         <v>9</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>659</v>
@@ -4053,7 +4041,7 @@
         <v>74</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="62.4">
@@ -4064,7 +4052,7 @@
         <v>55</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>45</v>
@@ -4076,10 +4064,10 @@
         <v>76</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>35</v>
@@ -4112,7 +4100,7 @@
         <v>79</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="93.6">
@@ -4123,7 +4111,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>46</v>
@@ -4132,11 +4120,11 @@
         <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>35</v>
@@ -4148,7 +4136,7 @@
         <v>9</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>663</v>
@@ -4169,7 +4157,7 @@
         <v>83</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="78">
@@ -4180,7 +4168,7 @@
         <v>55</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>47</v>
@@ -4193,7 +4181,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>35</v>
@@ -4208,7 +4196,7 @@
         <v>665</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>666</v>
@@ -4226,7 +4214,7 @@
         <v>88</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="62.4">
@@ -4237,7 +4225,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>48</v>
@@ -4249,10 +4237,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>35</v>
@@ -4267,7 +4255,7 @@
         <v>667</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>656</v>
@@ -4285,7 +4273,7 @@
         <v>93</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="140.4">
@@ -4296,7 +4284,7 @@
         <v>55</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>49</v>
@@ -4308,10 +4296,10 @@
         <v>95</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>35</v>
@@ -4329,7 +4317,7 @@
         <v>655</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>669</v>
@@ -4347,7 +4335,7 @@
         <v>98</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="93.6">
@@ -4358,7 +4346,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>50</v>
@@ -4371,7 +4359,7 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>35</v>
@@ -4383,10 +4371,10 @@
         <v>9</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>656</v>
@@ -4404,7 +4392,7 @@
         <v>103</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="78">
@@ -4415,7 +4403,7 @@
         <v>55</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>51</v>
@@ -4425,10 +4413,10 @@
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
@@ -4443,7 +4431,7 @@
         <v>670</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>671</v>
@@ -4461,7 +4449,7 @@
         <v>107</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="93.6">
@@ -4472,7 +4460,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>52</v>
@@ -4484,10 +4472,10 @@
         <v>109</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>35</v>
@@ -4505,7 +4493,7 @@
         <v>651</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>656</v>
@@ -4523,7 +4511,7 @@
         <v>112</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="140.4">
@@ -4534,7 +4522,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>53</v>
@@ -4547,7 +4535,7 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>35</v>
@@ -4562,10 +4550,10 @@
         <v>673</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>656</v>
@@ -4583,7 +4571,7 @@
         <v>117</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="93.6">
@@ -4594,7 +4582,7 @@
         <v>55</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>54</v>
@@ -4603,13 +4591,13 @@
         <v>118</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>35</v>
@@ -4642,7 +4630,7 @@
         <v>121</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="124.8">
@@ -4653,7 +4641,7 @@
         <v>135</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>122</v>
@@ -4662,13 +4650,13 @@
         <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>35</v>
@@ -4680,10 +4668,10 @@
         <v>9</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="N16" s="7" t="s">
         <v>835</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>836</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>656</v>
@@ -4701,7 +4689,7 @@
         <v>171</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="124.8">
@@ -4712,7 +4700,7 @@
         <v>135</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>123</v>
@@ -4721,11 +4709,11 @@
         <v>172</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>35</v>
@@ -4740,10 +4728,10 @@
         <v>677</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>666</v>
@@ -4761,7 +4749,7 @@
         <v>175</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="187.2">
@@ -4772,7 +4760,7 @@
         <v>135</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>124</v>
@@ -4781,11 +4769,11 @@
         <v>176</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>35</v>
@@ -4797,13 +4785,13 @@
         <v>9</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>678</v>
@@ -4821,7 +4809,7 @@
         <v>179</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="109.2">
@@ -4832,7 +4820,7 @@
         <v>135</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>125</v>
@@ -4841,11 +4829,11 @@
         <v>180</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>35</v>
@@ -4860,7 +4848,7 @@
         <v>684</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>679</v>
@@ -4881,7 +4869,7 @@
         <v>183</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="140.4">
@@ -4892,7 +4880,7 @@
         <v>135</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>126</v>
@@ -4901,11 +4889,11 @@
         <v>184</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>35</v>
@@ -4917,10 +4905,10 @@
         <v>9</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>681</v>
@@ -4941,7 +4929,7 @@
         <v>187</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="109.2">
@@ -4952,7 +4940,7 @@
         <v>135</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>127</v>
@@ -4964,10 +4952,10 @@
         <v>189</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>35</v>
@@ -4982,10 +4970,10 @@
         <v>683</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>685</v>
@@ -5003,7 +4991,7 @@
         <v>192</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="156">
@@ -5014,7 +5002,7 @@
         <v>135</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>128</v>
@@ -5026,10 +5014,10 @@
         <v>194</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>35</v>
@@ -5044,7 +5032,7 @@
         <v>686</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>687</v>
@@ -5062,7 +5050,7 @@
         <v>197</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="124.8">
@@ -5073,7 +5061,7 @@
         <v>135</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>129</v>
@@ -5086,7 +5074,7 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>35</v>
@@ -5119,7 +5107,7 @@
         <v>202</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="156">
@@ -5130,7 +5118,7 @@
         <v>135</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>130</v>
@@ -5142,10 +5130,10 @@
         <v>194</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>35</v>
@@ -5163,7 +5151,7 @@
         <v>691</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>656</v>
@@ -5181,7 +5169,7 @@
         <v>206</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="62.4">
@@ -5192,7 +5180,7 @@
         <v>135</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>131</v>
@@ -5204,10 +5192,10 @@
         <v>208</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>35</v>
@@ -5222,10 +5210,10 @@
         <v>692</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>656</v>
@@ -5243,7 +5231,7 @@
         <v>211</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="109.2">
@@ -5254,7 +5242,7 @@
         <v>135</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>132</v>
@@ -5266,10 +5254,10 @@
         <v>213</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>35</v>
@@ -5284,7 +5272,7 @@
         <v>693</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>694</v>
@@ -5302,7 +5290,7 @@
         <v>216</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="140.4">
@@ -5313,7 +5301,7 @@
         <v>135</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>133</v>
@@ -5322,13 +5310,13 @@
         <v>217</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>35</v>
@@ -5343,10 +5331,10 @@
         <v>695</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>696</v>
@@ -5364,7 +5352,7 @@
         <v>220</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="140.4">
@@ -5375,7 +5363,7 @@
         <v>135</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>134</v>
@@ -5384,11 +5372,11 @@
         <v>221</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>35</v>
@@ -5400,13 +5388,13 @@
         <v>9</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>651</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>697</v>
@@ -5424,7 +5412,7 @@
         <v>224</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="62.4">
@@ -5435,7 +5423,7 @@
         <v>136</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>138</v>
@@ -5448,7 +5436,7 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>35</v>
@@ -5463,7 +5451,7 @@
         <v>698</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>699</v>
@@ -5481,7 +5469,7 @@
         <v>229</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="78">
@@ -5492,7 +5480,7 @@
         <v>136</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>139</v>
@@ -5505,7 +5493,7 @@
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>35</v>
@@ -5520,7 +5508,7 @@
         <v>700</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>666</v>
@@ -5538,7 +5526,7 @@
         <v>234</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="124.8">
@@ -5549,7 +5537,7 @@
         <v>136</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>140</v>
@@ -5558,11 +5546,11 @@
         <v>235</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>35</v>
@@ -5577,7 +5565,7 @@
         <v>701</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>702</v>
@@ -5595,7 +5583,7 @@
         <v>238</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="124.8">
@@ -5606,7 +5594,7 @@
         <v>136</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>141</v>
@@ -5619,7 +5607,7 @@
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>35</v>
@@ -5637,7 +5625,7 @@
         <v>655</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>666</v>
@@ -5655,7 +5643,7 @@
         <v>242</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="78">
@@ -5666,7 +5654,7 @@
         <v>136</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>142</v>
@@ -5679,7 +5667,7 @@
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>35</v>
@@ -5697,7 +5685,7 @@
         <v>652</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>705</v>
@@ -5715,7 +5703,7 @@
         <v>247</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="171.6">
@@ -5726,7 +5714,7 @@
         <v>136</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>143</v>
@@ -5738,10 +5726,10 @@
         <v>249</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>35</v>
@@ -5759,7 +5747,7 @@
         <v>707</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>656</v>
@@ -5777,7 +5765,7 @@
         <v>252</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="124.8">
@@ -5788,7 +5776,7 @@
         <v>136</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>144</v>
@@ -5797,13 +5785,13 @@
         <v>253</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>35</v>
@@ -5818,10 +5806,10 @@
         <v>708</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>709</v>
@@ -5839,7 +5827,7 @@
         <v>256</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="109.2">
@@ -5850,7 +5838,7 @@
         <v>136</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>145</v>
@@ -5863,7 +5851,7 @@
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>35</v>
@@ -5881,7 +5869,7 @@
         <v>652</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>664</v>
@@ -5899,7 +5887,7 @@
         <v>261</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="78">
@@ -5910,7 +5898,7 @@
         <v>136</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>146</v>
@@ -5919,11 +5907,11 @@
         <v>262</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>35</v>
@@ -5959,7 +5947,7 @@
         <v>265</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="109.2">
@@ -5970,7 +5958,7 @@
         <v>136</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>147</v>
@@ -5983,7 +5971,7 @@
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>35</v>
@@ -5998,7 +5986,7 @@
         <v>714</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>715</v>
@@ -6016,7 +6004,7 @@
         <v>270</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="109.2">
@@ -6027,7 +6015,7 @@
         <v>136</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>148</v>
@@ -6040,7 +6028,7 @@
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>35</v>
@@ -6058,7 +6046,7 @@
         <v>717</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>718</v>
@@ -6076,7 +6064,7 @@
         <v>275</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="93.6">
@@ -6087,7 +6075,7 @@
         <v>136</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>149</v>
@@ -6099,10 +6087,10 @@
         <v>277</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>35</v>
@@ -6138,7 +6126,7 @@
         <v>280</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="156">
@@ -6149,7 +6137,7 @@
         <v>136</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>150</v>
@@ -6161,10 +6149,10 @@
         <v>282</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>35</v>
@@ -6179,10 +6167,10 @@
         <v>721</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>722</v>
@@ -6200,7 +6188,7 @@
         <v>285</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="124.8">
@@ -6211,7 +6199,7 @@
         <v>152</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>153</v>
@@ -6223,10 +6211,10 @@
         <v>287</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>35</v>
@@ -6238,7 +6226,7 @@
         <v>9</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="N42" s="7" t="s">
         <v>663</v>
@@ -6259,7 +6247,7 @@
         <v>290</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="140.4">
@@ -6270,7 +6258,7 @@
         <v>152</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>154</v>
@@ -6282,10 +6270,10 @@
         <v>292</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>35</v>
@@ -6297,7 +6285,7 @@
         <v>9</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>663</v>
@@ -6318,7 +6306,7 @@
         <v>295</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="109.2">
@@ -6329,7 +6317,7 @@
         <v>152</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>155</v>
@@ -6341,10 +6329,10 @@
         <v>297</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>35</v>
@@ -6380,7 +6368,7 @@
         <v>303</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="109.2">
@@ -6391,7 +6379,7 @@
         <v>152</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>156</v>
@@ -6404,7 +6392,7 @@
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>35</v>
@@ -6440,7 +6428,7 @@
         <v>304</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="93.6">
@@ -6451,7 +6439,7 @@
         <v>152</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>157</v>
@@ -6463,10 +6451,10 @@
         <v>306</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>35</v>
@@ -6478,7 +6466,7 @@
         <v>9</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="N46" s="7" t="s">
         <v>663</v>
@@ -6499,7 +6487,7 @@
         <v>309</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="78">
@@ -6510,7 +6498,7 @@
         <v>152</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>158</v>
@@ -6522,10 +6510,10 @@
         <v>311</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>35</v>
@@ -6561,7 +6549,7 @@
         <v>314</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="156">
@@ -6572,7 +6560,7 @@
         <v>152</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>159</v>
@@ -6585,7 +6573,7 @@
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>35</v>
@@ -6621,7 +6609,7 @@
         <v>319</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="124.8">
@@ -6632,7 +6620,7 @@
         <v>152</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>160</v>
@@ -6645,7 +6633,7 @@
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>35</v>
@@ -6681,7 +6669,7 @@
         <v>324</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="62.4">
@@ -6692,7 +6680,7 @@
         <v>152</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>161</v>
@@ -6704,10 +6692,10 @@
         <v>326</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>35</v>
@@ -6719,7 +6707,7 @@
         <v>9</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M50" s="7" t="s">
         <v>674</v>
@@ -6743,7 +6731,7 @@
         <v>329</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="140.4">
@@ -6754,7 +6742,7 @@
         <v>152</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>162</v>
@@ -6766,10 +6754,10 @@
         <v>331</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>35</v>
@@ -6781,7 +6769,7 @@
         <v>9</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>655</v>
@@ -6805,7 +6793,7 @@
         <v>334</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="93.6">
@@ -6816,7 +6804,7 @@
         <v>152</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>163</v>
@@ -6825,11 +6813,11 @@
         <v>335</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>35</v>
@@ -6841,7 +6829,7 @@
         <v>9</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="N52" s="7" t="s">
         <v>663</v>
@@ -6862,7 +6850,7 @@
         <v>338</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="78">
@@ -6873,7 +6861,7 @@
         <v>152</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>164</v>
@@ -6882,11 +6870,11 @@
         <v>339</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>35</v>
@@ -6898,7 +6886,7 @@
         <v>9</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="N53" s="7" t="s">
         <v>663</v>
@@ -6919,7 +6907,7 @@
         <v>342</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="124.8">
@@ -6930,7 +6918,7 @@
         <v>152</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>165</v>
@@ -6943,7 +6931,7 @@
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>35</v>
@@ -6979,7 +6967,7 @@
         <v>347</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="187.2">
@@ -6990,7 +6978,7 @@
         <v>152</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>166</v>
@@ -7003,7 +6991,7 @@
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>35</v>
@@ -7015,7 +7003,7 @@
         <v>9</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="N55" s="7" t="s">
         <v>727</v>
@@ -7036,7 +7024,7 @@
         <v>352</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="109.2">
@@ -7047,7 +7035,7 @@
         <v>152</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>167</v>
@@ -7060,7 +7048,7 @@
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>35</v>
@@ -7072,10 +7060,10 @@
         <v>9</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N56" s="7" t="s">
         <v>727</v>
@@ -7096,7 +7084,7 @@
         <v>356</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="93.6">
@@ -7107,7 +7095,7 @@
         <v>375</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>357</v>
@@ -7116,11 +7104,11 @@
         <v>376</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>35</v>
@@ -7135,7 +7123,7 @@
         <v>734</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N57" s="7" t="s">
         <v>727</v>
@@ -7156,7 +7144,7 @@
         <v>379</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="78">
@@ -7167,7 +7155,7 @@
         <v>375</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>358</v>
@@ -7179,10 +7167,10 @@
         <v>381</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>35</v>
@@ -7197,7 +7185,7 @@
         <v>735</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="N58" s="7" t="s">
         <v>727</v>
@@ -7218,7 +7206,7 @@
         <v>384</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="124.8">
@@ -7229,7 +7217,7 @@
         <v>375</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>359</v>
@@ -7238,11 +7226,11 @@
         <v>385</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>35</v>
@@ -7257,10 +7245,10 @@
         <v>736</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>656</v>
@@ -7278,7 +7266,7 @@
         <v>388</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="62.4">
@@ -7289,7 +7277,7 @@
         <v>375</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>360</v>
@@ -7301,10 +7289,10 @@
         <v>390</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>35</v>
@@ -7319,10 +7307,10 @@
         <v>737</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O60" s="7" t="s">
         <v>656</v>
@@ -7340,7 +7328,7 @@
         <v>393</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="140.4">
@@ -7351,7 +7339,7 @@
         <v>375</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>361</v>
@@ -7364,7 +7352,7 @@
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>35</v>
@@ -7379,10 +7367,10 @@
         <v>738</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>656</v>
@@ -7400,7 +7388,7 @@
         <v>398</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="124.8">
@@ -7411,7 +7399,7 @@
         <v>375</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>362</v>
@@ -7424,7 +7412,7 @@
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>35</v>
@@ -7439,10 +7427,10 @@
         <v>743</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="O62" s="7" t="s">
         <v>739</v>
@@ -7460,7 +7448,7 @@
         <v>403</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="124.8">
@@ -7471,7 +7459,7 @@
         <v>375</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>363</v>
@@ -7480,11 +7468,11 @@
         <v>404</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>35</v>
@@ -7499,10 +7487,10 @@
         <v>740</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>656</v>
@@ -7520,7 +7508,7 @@
         <v>407</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="124.8">
@@ -7531,7 +7519,7 @@
         <v>375</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>364</v>
@@ -7544,7 +7532,7 @@
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>35</v>
@@ -7580,7 +7568,7 @@
         <v>412</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="109.2">
@@ -7591,7 +7579,7 @@
         <v>375</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>365</v>
@@ -7604,7 +7592,7 @@
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>35</v>
@@ -7619,10 +7607,10 @@
         <v>744</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O65" s="7" t="s">
         <v>657</v>
@@ -7640,7 +7628,7 @@
         <v>417</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="124.8">
@@ -7651,7 +7639,7 @@
         <v>375</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>366</v>
@@ -7663,10 +7651,10 @@
         <v>419</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>35</v>
@@ -7681,10 +7669,10 @@
         <v>745</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>656</v>
@@ -7702,7 +7690,7 @@
         <v>422</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="109.2">
@@ -7713,7 +7701,7 @@
         <v>375</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>367</v>
@@ -7726,7 +7714,7 @@
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>35</v>
@@ -7741,10 +7729,10 @@
         <v>746</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O67" s="7" t="s">
         <v>656</v>
@@ -7762,7 +7750,7 @@
         <v>427</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="140.4">
@@ -7773,7 +7761,7 @@
         <v>375</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>368</v>
@@ -7786,7 +7774,7 @@
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>35</v>
@@ -7798,13 +7786,13 @@
         <v>9</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O68" s="7" t="s">
         <v>656</v>
@@ -7822,7 +7810,7 @@
         <v>432</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="156">
@@ -7833,7 +7821,7 @@
         <v>375</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>369</v>
@@ -7846,7 +7834,7 @@
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>35</v>
@@ -7861,10 +7849,10 @@
         <v>747</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O69" s="7" t="s">
         <v>656</v>
@@ -7882,7 +7870,7 @@
         <v>437</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="62.4">
@@ -7893,7 +7881,7 @@
         <v>375</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>370</v>
@@ -7906,7 +7894,7 @@
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>35</v>
@@ -7921,10 +7909,10 @@
         <v>748</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O70" s="7" t="s">
         <v>749</v>
@@ -7942,7 +7930,7 @@
         <v>442</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="109.2">
@@ -7953,7 +7941,7 @@
         <v>375</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>371</v>
@@ -7966,7 +7954,7 @@
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>35</v>
@@ -7981,10 +7969,10 @@
         <v>750</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O71" s="7" t="s">
         <v>749</v>
@@ -8002,7 +7990,7 @@
         <v>447</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="93.6">
@@ -8013,7 +8001,7 @@
         <v>375</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>372</v>
@@ -8022,11 +8010,11 @@
         <v>448</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>35</v>
@@ -8038,13 +8026,13 @@
         <v>9</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O72" s="7" t="s">
         <v>751</v>
@@ -8062,7 +8050,7 @@
         <v>451</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="109.2">
@@ -8073,7 +8061,7 @@
         <v>375</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>373</v>
@@ -8082,11 +8070,11 @@
         <v>452</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>35</v>
@@ -8101,10 +8089,10 @@
         <v>752</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O73" s="7" t="s">
         <v>753</v>
@@ -8122,7 +8110,7 @@
         <v>455</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="156">
@@ -8133,7 +8121,7 @@
         <v>456</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>457</v>
@@ -8145,7 +8133,7 @@
         <v>477</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>35</v>
@@ -8157,13 +8145,13 @@
         <v>9</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="M74" s="7" t="s">
         <v>754</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O74" s="7" t="s">
         <v>656</v>
@@ -8176,10 +8164,10 @@
       </c>
       <c r="R74" s="24"/>
       <c r="S74" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="78">
@@ -8190,7 +8178,7 @@
         <v>456</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>458</v>
@@ -8202,10 +8190,10 @@
         <v>480</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>35</v>
@@ -8217,13 +8205,13 @@
         <v>9</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="M75" s="7" t="s">
         <v>754</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O75" s="7" t="s">
         <v>656</v>
@@ -8236,10 +8224,10 @@
       </c>
       <c r="R75" s="24"/>
       <c r="S75" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="78">
@@ -8250,7 +8238,7 @@
         <v>456</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>459</v>
@@ -8262,10 +8250,10 @@
         <v>488</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>35</v>
@@ -8277,13 +8265,13 @@
         <v>9</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O76" s="7" t="s">
         <v>656</v>
@@ -8298,10 +8286,10 @@
         <v>487</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="109.2">
@@ -8312,7 +8300,7 @@
         <v>456</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>460</v>
@@ -8324,10 +8312,10 @@
         <v>490</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>35</v>
@@ -8339,7 +8327,7 @@
         <v>9</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="M77" s="7" t="s">
         <v>755</v>
@@ -8360,10 +8348,10 @@
         <v>491</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="109.2">
@@ -8374,7 +8362,7 @@
         <v>456</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>461</v>
@@ -8386,7 +8374,7 @@
         <v>477</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>35</v>
@@ -8398,13 +8386,13 @@
         <v>9</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O78" s="7" t="s">
         <v>656</v>
@@ -8419,10 +8407,10 @@
         <v>493</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="78">
@@ -8433,7 +8421,7 @@
         <v>456</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>462</v>
@@ -8446,7 +8434,7 @@
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>35</v>
@@ -8458,13 +8446,13 @@
         <v>9</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O79" s="7" t="s">
         <v>715</v>
@@ -8479,10 +8467,10 @@
         <v>498</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="109.2">
@@ -8493,7 +8481,7 @@
         <v>456</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>463</v>
@@ -8502,11 +8490,11 @@
         <v>499</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>35</v>
@@ -8524,7 +8512,7 @@
         <v>755</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O80" s="7" t="s">
         <v>709</v>
@@ -8539,10 +8527,10 @@
         <v>500</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="93.6">
@@ -8553,7 +8541,7 @@
         <v>456</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>464</v>
@@ -8562,11 +8550,11 @@
         <v>501</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>35</v>
@@ -8578,13 +8566,13 @@
         <v>9</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="N81" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O81" s="7" t="s">
         <v>678</v>
@@ -8599,10 +8587,10 @@
         <v>502</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="109.2">
@@ -8613,7 +8601,7 @@
         <v>456</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>465</v>
@@ -8622,11 +8610,11 @@
         <v>504</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>35</v>
@@ -8638,13 +8626,13 @@
         <v>9</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M82" s="7" t="s">
         <v>755</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O82" s="7" t="s">
         <v>757</v>
@@ -8659,10 +8647,10 @@
         <v>505</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="140.4">
@@ -8673,7 +8661,7 @@
         <v>456</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>466</v>
@@ -8685,10 +8673,10 @@
         <v>506</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>35</v>
@@ -8703,10 +8691,10 @@
         <v>758</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O83" s="7" t="s">
         <v>656</v>
@@ -8721,10 +8709,10 @@
         <v>508</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="124.8">
@@ -8735,7 +8723,7 @@
         <v>456</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>467</v>
@@ -8748,7 +8736,7 @@
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>35</v>
@@ -8781,10 +8769,10 @@
         <v>511</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="124.8">
@@ -8795,7 +8783,7 @@
         <v>456</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>468</v>
@@ -8808,7 +8796,7 @@
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>35</v>
@@ -8826,7 +8814,7 @@
         <v>755</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O85" s="7" t="s">
         <v>689</v>
@@ -8841,10 +8829,10 @@
         <v>516</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="124.8">
@@ -8855,7 +8843,7 @@
         <v>456</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>469</v>
@@ -8868,7 +8856,7 @@
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>35</v>
@@ -8880,13 +8868,13 @@
         <v>9</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="N86" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O86" s="7" t="s">
         <v>656</v>
@@ -8901,34 +8889,33 @@
         <v>519</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="93.6">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="78">
       <c r="A87" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>456</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>812</v>
-      </c>
-      <c r="G87" s="7"/>
+        <v>522</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>827</v>
+      </c>
       <c r="H87" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>35</v>
@@ -8940,50 +8927,52 @@
         <v>9</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M87" s="7" t="s">
         <v>755</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>764</v>
+        <v>666</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="Q87" s="25"/>
-      <c r="R87" s="26"/>
+      <c r="Q87" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="R87" s="25"/>
       <c r="S87" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="78">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="93.6">
       <c r="A88" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>456</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="G88" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="G88" s="20" t="s">
         <v>828</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>35</v>
@@ -8995,52 +8984,55 @@
         <v>9</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>765</v>
+        <v>860</v>
       </c>
       <c r="M88" s="7" t="s">
         <v>755</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>666</v>
+        <v>765</v>
       </c>
       <c r="P88" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q88" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="R88" s="26"/>
+        <v>525</v>
+      </c>
+      <c r="R88" s="8" t="s">
+        <v>524</v>
+      </c>
       <c r="S88" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" ht="93.6">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="109.2">
       <c r="A89" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>456</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="G89" s="20" t="s">
-        <v>829</v>
+        <v>528</v>
+      </c>
+      <c r="F89" s="13"/>
+      <c r="G89" s="19" t="s">
+        <v>828</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>35</v>
@@ -9052,55 +9044,54 @@
         <v>9</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>861</v>
+        <v>766</v>
       </c>
       <c r="M89" s="7" t="s">
         <v>755</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="P89" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q89" s="11" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="R89" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="109.2">
       <c r="A90" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>456</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="F90" s="13"/>
-      <c r="G90" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="G90" s="21" t="s">
         <v>829</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>35</v>
@@ -9112,60 +9103,57 @@
         <v>9</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="M90" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="N90" s="7" t="s">
-        <v>836</v>
+        <v>768</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>768</v>
+        <v>682</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q90" s="11" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="R90" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="109.2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="93.6">
       <c r="A91" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>456</v>
+        <v>533</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="G91" s="21" t="s">
-        <v>830</v>
+        <v>549</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>821</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>475</v>
+        <v>547</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>9</v>
@@ -9173,49 +9161,55 @@
       <c r="L91" s="7" t="s">
         <v>769</v>
       </c>
+      <c r="M91" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="N91" s="7" t="s">
+        <v>681</v>
+      </c>
       <c r="O91" s="7" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="P91" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q91" s="11" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="R91" s="8" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="93.6">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="124.8">
       <c r="A92" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>533</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>35</v>
@@ -9230,10 +9224,7 @@
         <v>770</v>
       </c>
       <c r="M92" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="N92" s="7" t="s">
-        <v>681</v>
+        <v>712</v>
       </c>
       <c r="O92" s="7" t="s">
         <v>656</v>
@@ -9242,42 +9233,40 @@
         <v>653</v>
       </c>
       <c r="Q92" s="11" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="R92" s="8" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="124.8">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="78">
       <c r="A93" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>533</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>831</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="G93" s="7"/>
       <c r="H93" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>35</v>
@@ -9292,49 +9281,52 @@
         <v>771</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>712</v>
+        <v>772</v>
+      </c>
+      <c r="N93" s="7" t="s">
+        <v>681</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>656</v>
+        <v>753</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q93" s="11" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="R93" s="8" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" ht="78">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="171.6">
       <c r="A94" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>533</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>981</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>557</v>
+        <v>980</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>831</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>35</v>
@@ -9346,55 +9338,52 @@
         <v>9</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="M94" s="7" t="s">
         <v>773</v>
       </c>
       <c r="N94" s="7" t="s">
         <v>681</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>753</v>
+        <v>666</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="Q94" s="11" t="s">
-        <v>558</v>
+      <c r="Q94" s="23" t="s">
+        <v>561</v>
       </c>
       <c r="R94" s="8" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="171.6">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="140.4">
       <c r="A95" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>533</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>537</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>832</v>
+        <v>981</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>563</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G95" s="7"/>
       <c r="H95" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>35</v>
@@ -9409,49 +9398,49 @@
         <v>774</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>666</v>
+        <v>696</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="Q95" s="23" t="s">
-        <v>561</v>
+      <c r="Q95" s="11" t="s">
+        <v>565</v>
       </c>
       <c r="R95" s="8" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="140.4">
       <c r="A96" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>533</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>1006</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>35</v>
@@ -9465,50 +9454,53 @@
       <c r="L96" s="7" t="s">
         <v>775</v>
       </c>
+      <c r="M96" s="7" t="s">
+        <v>772</v>
+      </c>
       <c r="N96" s="7" t="s">
-        <v>663</v>
+        <v>720</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>696</v>
+        <v>776</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q96" s="11" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="R96" s="8" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" ht="140.4">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="93.6">
       <c r="A97" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>533</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>1008</v>
+        <v>570</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="G97" s="7"/>
       <c r="H97" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>35</v>
@@ -9520,55 +9512,55 @@
         <v>9</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>720</v>
+        <v>681</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="P97" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q97" s="11" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="R97" s="8" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="93.6">
       <c r="A98" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>533</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>35</v>
@@ -9580,55 +9572,49 @@
         <v>9</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="M98" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="N98" s="7" t="s">
-        <v>681</v>
-      </c>
       <c r="O98" s="7" t="s">
-        <v>766</v>
+        <v>656</v>
       </c>
       <c r="P98" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q98" s="11" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="R98" s="8" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" ht="93.6">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="124.8">
       <c r="A99" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>533</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>812</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>35</v>
@@ -9642,47 +9628,53 @@
       <c r="L99" s="7" t="s">
         <v>780</v>
       </c>
+      <c r="M99" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="N99" s="7" t="s">
+        <v>835</v>
+      </c>
       <c r="O99" s="7" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="P99" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q99" s="11" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="R99" s="8" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" ht="124.8">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="78">
       <c r="A100" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>533</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>813</v>
+        <v>582</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>35</v>
@@ -9696,53 +9688,50 @@
       <c r="L100" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="M100" s="7" t="s">
-        <v>839</v>
-      </c>
       <c r="N100" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>666</v>
+        <v>776</v>
       </c>
       <c r="P100" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q100" s="11" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="R100" s="8" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="78">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="109.2">
       <c r="A101" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>533</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>35</v>
@@ -9756,50 +9745,53 @@
       <c r="L101" s="7" t="s">
         <v>782</v>
       </c>
+      <c r="M101" s="7" t="s">
+        <v>655</v>
+      </c>
       <c r="N101" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="P101" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q101" s="11" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="R101" s="8" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="109.2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="124.8">
       <c r="A102" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>533</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>35</v>
@@ -9811,55 +9803,55 @@
         <v>9</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M102" s="7" t="s">
-        <v>655</v>
+        <v>717</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="P102" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q102" s="11" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="R102" s="8" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" ht="124.8">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="171.6">
       <c r="A103" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>533</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>545</v>
+        <v>470</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>589</v>
+        <v>593</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>811</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>35</v>
@@ -9871,55 +9863,51 @@
         <v>9</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>785</v>
-      </c>
-      <c r="M103" s="7" t="s">
-        <v>717</v>
+        <v>851</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
       <c r="P103" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q103" s="11" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="R103" s="8" t="s">
-        <v>590</v>
+        <v>1022</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" ht="171.6">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="124.8">
       <c r="A104" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>533</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>470</v>
+        <v>546</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>812</v>
-      </c>
-      <c r="G104" s="7"/>
+        <v>595</v>
+      </c>
+      <c r="G104" s="20" t="s">
+        <v>832</v>
+      </c>
       <c r="H104" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>35</v>
@@ -9931,106 +9919,112 @@
         <v>9</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>852</v>
+        <v>786</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>764</v>
+        <v>666</v>
       </c>
       <c r="P104" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q104" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="R104" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="R104" s="25"/>
+      <c r="S104" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="S104" s="1" t="s">
-        <v>1028</v>
-      </c>
       <c r="T104" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" ht="124.8">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="202.8">
       <c r="A105" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>533</v>
+        <v>598</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>546</v>
+        <v>599</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="G105" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L105" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="H105" s="7" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L105" s="7" t="s">
-        <v>787</v>
+      <c r="M105" s="7" t="s">
+        <v>712</v>
       </c>
       <c r="N105" s="7" t="s">
-        <v>836</v>
+        <v>679</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="P105" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q105" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="R105" s="26"/>
+        <v>613</v>
+      </c>
+      <c r="R105" s="8" t="s">
+        <v>612</v>
+      </c>
       <c r="S105" s="1" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" ht="202.8">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="140.4">
       <c r="A106" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>598</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="G106" s="7"/>
+        <v>614</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>813</v>
+      </c>
       <c r="H106" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>35</v>
@@ -10042,13 +10036,13 @@
         <v>9</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>834</v>
+        <v>787</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>712</v>
+        <v>788</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O106" s="7" t="s">
         <v>656</v>
@@ -10057,42 +10051,42 @@
         <v>653</v>
       </c>
       <c r="Q106" s="11" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="R106" s="8" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="S106" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="T106" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" ht="140.4">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="78">
       <c r="A107" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>598</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>814</v>
+        <v>619</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>821</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>35</v>
@@ -10104,57 +10098,55 @@
         <v>9</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>789</v>
+        <v>712</v>
       </c>
       <c r="N107" s="7" t="s">
         <v>681</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="P107" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q107" s="11" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="R107" s="8" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="T107" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" ht="78">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="140.4">
       <c r="A108" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>598</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="G108" s="17" t="s">
-        <v>822</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G108" s="7"/>
       <c r="H108" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>35</v>
@@ -10175,46 +10167,48 @@
         <v>681</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="P108" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q108" s="11" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="R108" s="8" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="S108" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" ht="140.4">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="93.6">
       <c r="A109" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>598</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G109" s="7"/>
+        <v>553</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>830</v>
+      </c>
       <c r="H109" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>35</v>
@@ -10241,42 +10235,40 @@
         <v>653</v>
       </c>
       <c r="Q109" s="11" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="R109" s="8" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="S109" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="T109" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" ht="93.6">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="171.6">
       <c r="A110" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>598</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="G110" s="17" t="s">
-        <v>831</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="G110" s="7"/>
       <c r="H110" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>35</v>
@@ -10288,55 +10280,55 @@
         <v>9</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>792</v>
+        <v>861</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>712</v>
+        <v>742</v>
       </c>
       <c r="N110" s="7" t="s">
         <v>681</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="P110" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q110" s="11" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="R110" s="8" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" ht="171.6">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="187.2">
       <c r="A111" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>598</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>35</v>
@@ -10348,55 +10340,55 @@
         <v>9</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>742</v>
+        <v>793</v>
       </c>
       <c r="N111" s="7" t="s">
         <v>681</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="P111" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q111" s="11" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="R111" s="8" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="S111" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="T111" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" ht="187.2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="156">
       <c r="A112" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>598</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>633</v>
+        <v>637</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>814</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>35</v>
@@ -10408,55 +10400,55 @@
         <v>9</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>794</v>
+        <v>712</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>681</v>
+        <v>835</v>
       </c>
       <c r="O112" s="7" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="P112" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q112" s="11" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="R112" s="8" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="T112" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" ht="156">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" ht="124.8">
       <c r="A113" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>598</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>815</v>
+        <v>641</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="G113" s="7"/>
       <c r="H113" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>35</v>
@@ -10474,49 +10466,49 @@
         <v>712</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>836</v>
+        <v>681</v>
       </c>
       <c r="O113" s="7" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="P113" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q113" s="11" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="R113" s="8" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="S113" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="T113" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" ht="124.8">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="93.6">
       <c r="A114" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>598</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="G114" s="7"/>
       <c r="H114" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>35</v>
@@ -10534,49 +10526,49 @@
         <v>712</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>681</v>
+        <v>835</v>
       </c>
       <c r="O114" s="7" t="s">
-        <v>656</v>
+        <v>797</v>
       </c>
       <c r="P114" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q114" s="11" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="R114" s="8" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="S114" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="T114" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" ht="93.6">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="78">
       <c r="A115" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>598</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="G115" s="7"/>
+        <v>1004</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G115" s="14"/>
       <c r="H115" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>35</v>
@@ -10588,88 +10580,28 @@
         <v>9</v>
       </c>
       <c r="L115" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="M115" s="7" t="s">
-        <v>712</v>
+        <v>798</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>798</v>
+        <v>666</v>
       </c>
       <c r="P115" s="1" t="s">
         <v>653</v>
       </c>
       <c r="Q115" s="11" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="R115" s="8" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="S115" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="T115" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" ht="78">
-      <c r="A116" s="1">
-        <v>11</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G116" s="14"/>
-      <c r="H116" s="7" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="K116" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L116" s="7" t="s">
-        <v>799</v>
-      </c>
-      <c r="N116" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="O116" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="P116" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q116" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="R116" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="S116" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="T116" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -10901,39 +10833,39 @@
     <hyperlink ref="D84" r:id="rId224" tooltip="On the reform debate over the EU Common Agriculture Policy:" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-02en/international-platform/on-the-reform-debate-over-the-eu-common-agriculture-policy/"/>
     <hyperlink ref="D85" r:id="rId225" tooltip="Developing Zambia's agriculture: a hard road to hoe" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-02en/international-platform/developing-zambias-agriculture-a-hard-road-to-hoe/"/>
     <hyperlink ref="D86" r:id="rId226" tooltip="Carbon labels - pitfalls for developing countries?" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-02en/international-platform/carbon-labels-pitfalls-for-developing-countries/"/>
-    <hyperlink ref="D87" r:id="rId227" tooltip="Tuning in to consumers: Tailoring African rice value chains to urban markets" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-02en/forum/tuning-in-to-consumers-tailoring-african-rice-value-chains-to-urban-markets/"/>
-    <hyperlink ref="D88" r:id="rId228" tooltip="Computers in the cassava field" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-02en/scientific-world/computers-in-the-cassava-field/"/>
-    <hyperlink ref="D89" r:id="rId229" tooltip="Organic prawns from Bangladesh" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-02en/scientific-world/organic-prawns-from-bangladesh/"/>
-    <hyperlink ref="D90" r:id="rId230" tooltip="Livestock surge may harm human health" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-02en/scientific-world/livestock-surge-may-harm-human-health/"/>
-    <hyperlink ref="D91" r:id="rId231" tooltip="African knowledge portal launched" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-02en/scientific-world/african-knowledge-portal-launched/"/>
-    <hyperlink ref="Q76" r:id="rId232"/>
-    <hyperlink ref="Q77" r:id="rId233"/>
-    <hyperlink ref="Q78" r:id="rId234"/>
-    <hyperlink ref="Q79" r:id="rId235"/>
-    <hyperlink ref="Q80" r:id="rId236"/>
-    <hyperlink ref="Q81" r:id="rId237"/>
-    <hyperlink ref="Q82" r:id="rId238"/>
-    <hyperlink ref="Q83" r:id="rId239"/>
-    <hyperlink ref="Q84" r:id="rId240"/>
-    <hyperlink ref="Q85" r:id="rId241"/>
-    <hyperlink ref="Q86" r:id="rId242"/>
+    <hyperlink ref="D87" r:id="rId227" tooltip="Computers in the cassava field" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-02en/scientific-world/computers-in-the-cassava-field/"/>
+    <hyperlink ref="D88" r:id="rId228" tooltip="Organic prawns from Bangladesh" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-02en/scientific-world/organic-prawns-from-bangladesh/"/>
+    <hyperlink ref="D89" r:id="rId229" tooltip="Livestock surge may harm human health" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-02en/scientific-world/livestock-surge-may-harm-human-health/"/>
+    <hyperlink ref="D90" r:id="rId230" tooltip="African knowledge portal launched" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-02en/scientific-world/african-knowledge-portal-launched/"/>
+    <hyperlink ref="Q76" r:id="rId231"/>
+    <hyperlink ref="Q77" r:id="rId232"/>
+    <hyperlink ref="Q78" r:id="rId233"/>
+    <hyperlink ref="Q79" r:id="rId234"/>
+    <hyperlink ref="Q80" r:id="rId235"/>
+    <hyperlink ref="Q81" r:id="rId236"/>
+    <hyperlink ref="Q82" r:id="rId237"/>
+    <hyperlink ref="Q83" r:id="rId238"/>
+    <hyperlink ref="Q84" r:id="rId239"/>
+    <hyperlink ref="Q85" r:id="rId240"/>
+    <hyperlink ref="Q86" r:id="rId241"/>
+    <hyperlink ref="Q88" r:id="rId242"/>
     <hyperlink ref="Q89" r:id="rId243"/>
     <hyperlink ref="Q90" r:id="rId244"/>
-    <hyperlink ref="Q91" r:id="rId245"/>
-    <hyperlink ref="D92" r:id="rId246" tooltip="Rural development in an urbanising world" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/focus/rural-development-in-an-urbanising-world/"/>
-    <hyperlink ref="D93" r:id="rId247" tooltip="International migration flows: key data and trends" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/focus/international-migration-flows-key-data-and-trends/"/>
-    <hyperlink ref="D94" r:id="rId248" tooltip="Zimbabwean migrants destabilise the north of South Africa" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/focus/zimbabwean-migrants-destabilise-the-north-of-south-africa/"/>
-    <hyperlink ref="D95" r:id="rId249" tooltip="The role of local migration in African development" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/focus/the-role-of-local-migration-in-african-development/"/>
-    <hyperlink ref="D96" r:id="rId250" tooltip="Rural migrant workers in China" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/focus/rural-migrant-workers-in-china/"/>
-    <hyperlink ref="D97" r:id="rId251" tooltip="Population dynamics and rural development in Burkina Faso" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/focus/population-dynamics-and-rural-development-in-burkina-faso/"/>
-    <hyperlink ref="D98" r:id="rId252" tooltip="Female migration: cultural and social change in Bangladesh" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/focus/female-migration-cultural-and-social-change-in-bangladesh/"/>
-    <hyperlink ref="D99" r:id="rId253" tooltip="Pinning hopes on rural youth" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/opinion/pinning-hopes-on-rural-youth/"/>
-    <hyperlink ref="D100" r:id="rId254" tooltip="Adapting African agriculture to climate change" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/international-platform/adapting-african-agriculture-to-climate-change/"/>
-    <hyperlink ref="D101" r:id="rId255" tooltip="Stone lines against desertification - a success story from Burkina Faso" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/international-platform/stone-lines-against-desertification-a-success-story-from-burkina-faso/"/>
-    <hyperlink ref="D102" r:id="rId256" tooltip="Enhancing opportunities for local community development: Honey production in Mozambique" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/international-platform/enhancing-opportunities-for-local-community-development-honey-production-in-mozambique/"/>
-    <hyperlink ref="D103" r:id="rId257" tooltip="Guinea pigs: a guarantee of food security and a source of income in South Kivu, Democratic Republic of Congo" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/international-platform/guinea-pigs-a-guarantee-of-food-security-and-a-source-of-income-in-south-kivu-democratic-republic-of-congo/"/>
-    <hyperlink ref="D104" r:id="rId258" tooltip="Tuning in to consumers: Tailoring African rice value chains to urban markets" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/forum/tuning-in-to-consumers-tailoring-african-rice-value-chains-to-urban-markets/"/>
-    <hyperlink ref="D105" r:id="rId259" tooltip="Green genetic engineering in Africa" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/scientific-world/green-genetic-engineering-in-africa/"/>
+    <hyperlink ref="D91" r:id="rId245" tooltip="Rural development in an urbanising world" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/focus/rural-development-in-an-urbanising-world/"/>
+    <hyperlink ref="D92" r:id="rId246" tooltip="International migration flows: key data and trends" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/focus/international-migration-flows-key-data-and-trends/"/>
+    <hyperlink ref="D93" r:id="rId247" tooltip="Zimbabwean migrants destabilise the north of South Africa" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/focus/zimbabwean-migrants-destabilise-the-north-of-south-africa/"/>
+    <hyperlink ref="D94" r:id="rId248" tooltip="The role of local migration in African development" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/focus/the-role-of-local-migration-in-african-development/"/>
+    <hyperlink ref="D95" r:id="rId249" tooltip="Rural migrant workers in China" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/focus/rural-migrant-workers-in-china/"/>
+    <hyperlink ref="D96" r:id="rId250" tooltip="Population dynamics and rural development in Burkina Faso" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/focus/population-dynamics-and-rural-development-in-burkina-faso/"/>
+    <hyperlink ref="D97" r:id="rId251" tooltip="Female migration: cultural and social change in Bangladesh" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/focus/female-migration-cultural-and-social-change-in-bangladesh/"/>
+    <hyperlink ref="D98" r:id="rId252" tooltip="Pinning hopes on rural youth" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/opinion/pinning-hopes-on-rural-youth/"/>
+    <hyperlink ref="D99" r:id="rId253" tooltip="Adapting African agriculture to climate change" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/international-platform/adapting-african-agriculture-to-climate-change/"/>
+    <hyperlink ref="D100" r:id="rId254" tooltip="Stone lines against desertification - a success story from Burkina Faso" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/international-platform/stone-lines-against-desertification-a-success-story-from-burkina-faso/"/>
+    <hyperlink ref="D101" r:id="rId255" tooltip="Enhancing opportunities for local community development: Honey production in Mozambique" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/international-platform/enhancing-opportunities-for-local-community-development-honey-production-in-mozambique/"/>
+    <hyperlink ref="D102" r:id="rId256" tooltip="Guinea pigs: a guarantee of food security and a source of income in South Kivu, Democratic Republic of Congo" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/international-platform/guinea-pigs-a-guarantee-of-food-security-and-a-source-of-income-in-south-kivu-democratic-republic-of-congo/"/>
+    <hyperlink ref="D103" r:id="rId257" tooltip="Tuning in to consumers: Tailoring African rice value chains to urban markets" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/forum/tuning-in-to-consumers-tailoring-african-rice-value-chains-to-urban-markets/"/>
+    <hyperlink ref="D104" r:id="rId258" tooltip="Green genetic engineering in Africa" display="http://www.rural21.com/english/archiv-2005-2011/archive2011-01en/scientific-world/green-genetic-engineering-in-africa/"/>
+    <hyperlink ref="Q91" r:id="rId259"/>
     <hyperlink ref="Q92" r:id="rId260"/>
     <hyperlink ref="Q93" r:id="rId261"/>
     <hyperlink ref="Q94" r:id="rId262"/>
@@ -10945,19 +10877,19 @@
     <hyperlink ref="Q100" r:id="rId268"/>
     <hyperlink ref="Q101" r:id="rId269"/>
     <hyperlink ref="Q102" r:id="rId270"/>
-    <hyperlink ref="Q103" r:id="rId271"/>
-    <hyperlink ref="G105" r:id="rId272" display="www.biosicherheit.de"/>
-    <hyperlink ref="D106" r:id="rId273" tooltip="The rush for farmland" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/focus/the-rush-for-farmland/"/>
-    <hyperlink ref="D107" r:id="rId274" tooltip="A threat to global food security" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/focus/a-threat-to-global-food-security/"/>
-    <hyperlink ref="D108" r:id="rId275" tooltip="&quot;Land grabs&quot; in Africa: Pathways, trends and the role of legal contracts" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/focus/land-grabs-in-africa-pathways-trends-and-the-role-of-legal-contracts/"/>
-    <hyperlink ref="D109" r:id="rId276" tooltip="Big push for development or erosion of local livelihood?" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/focus/big-push-for-development-or-erosion-of-local-livelihood/"/>
-    <hyperlink ref="D110" r:id="rId277" tooltip="New challenges for ACP countries?" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/focus/new-challenges-for-acp-countries/"/>
-    <hyperlink ref="D111" r:id="rId278" tooltip="An opportunity for sustainable growth in Africa" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/opinion/an-opportunity-for-sustainable-growth-in-africa/"/>
-    <hyperlink ref="D112" r:id="rId279" tooltip="Indigenous people are losing their livelihood" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/opinion/indigenous-people-are-losing-their-livelihood/"/>
-    <hyperlink ref="D113" r:id="rId280" tooltip="Rethinking rural and agricultural finance - The African case" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/international-platform/rethinking-rural-and-agricultural-finance-the-african-case/"/>
-    <hyperlink ref="D114" r:id="rId281" tooltip="Regional rural development needs people empowerment" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/international-platform/regional-rural-development-needs-people-empowerment/"/>
-    <hyperlink ref="D115" r:id="rId282" tooltip="Cheese versus poverty" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/international-platform/cheese-versus-poverty/"/>
-    <hyperlink ref="D116" r:id="rId283" tooltip="African farmers develop their own rice cultivars" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/scientific-world/african-farmers-develop-their-own-rice-cultivars/"/>
+    <hyperlink ref="G104" r:id="rId271" display="www.biosicherheit.de"/>
+    <hyperlink ref="D105" r:id="rId272" tooltip="The rush for farmland" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/focus/the-rush-for-farmland/"/>
+    <hyperlink ref="D106" r:id="rId273" tooltip="A threat to global food security" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/focus/a-threat-to-global-food-security/"/>
+    <hyperlink ref="D107" r:id="rId274" tooltip="&quot;Land grabs&quot; in Africa: Pathways, trends and the role of legal contracts" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/focus/land-grabs-in-africa-pathways-trends-and-the-role-of-legal-contracts/"/>
+    <hyperlink ref="D108" r:id="rId275" tooltip="Big push for development or erosion of local livelihood?" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/focus/big-push-for-development-or-erosion-of-local-livelihood/"/>
+    <hyperlink ref="D109" r:id="rId276" tooltip="New challenges for ACP countries?" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/focus/new-challenges-for-acp-countries/"/>
+    <hyperlink ref="D110" r:id="rId277" tooltip="An opportunity for sustainable growth in Africa" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/opinion/an-opportunity-for-sustainable-growth-in-africa/"/>
+    <hyperlink ref="D111" r:id="rId278" tooltip="Indigenous people are losing their livelihood" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/opinion/indigenous-people-are-losing-their-livelihood/"/>
+    <hyperlink ref="D112" r:id="rId279" tooltip="Rethinking rural and agricultural finance - The African case" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/international-platform/rethinking-rural-and-agricultural-finance-the-african-case/"/>
+    <hyperlink ref="D113" r:id="rId280" tooltip="Regional rural development needs people empowerment" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/international-platform/regional-rural-development-needs-people-empowerment/"/>
+    <hyperlink ref="D114" r:id="rId281" tooltip="Cheese versus poverty" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/international-platform/cheese-versus-poverty/"/>
+    <hyperlink ref="D115" r:id="rId282" tooltip="African farmers develop their own rice cultivars" display="http://www.rural21.com/english/archiv-2005-2011/archive2010-01en/scientific-world/african-farmers-develop-their-own-rice-cultivars/"/>
+    <hyperlink ref="Q105" r:id="rId283"/>
     <hyperlink ref="Q106" r:id="rId284"/>
     <hyperlink ref="Q107" r:id="rId285"/>
     <hyperlink ref="Q108" r:id="rId286"/>
@@ -10965,28 +10897,27 @@
     <hyperlink ref="Q110" r:id="rId288"/>
     <hyperlink ref="Q111" r:id="rId289"/>
     <hyperlink ref="Q112" r:id="rId290"/>
-    <hyperlink ref="Q113" r:id="rId291"/>
+    <hyperlink ref="Q114" r:id="rId291"/>
     <hyperlink ref="Q115" r:id="rId292"/>
-    <hyperlink ref="Q116" r:id="rId293"/>
-    <hyperlink ref="Q114" r:id="rId294"/>
-    <hyperlink ref="Q105" r:id="rId295"/>
-    <hyperlink ref="Q104" r:id="rId296"/>
-    <hyperlink ref="Q88" r:id="rId297"/>
-    <hyperlink ref="Q75" r:id="rId298"/>
-    <hyperlink ref="Q74" r:id="rId299"/>
-    <hyperlink ref="Q44" r:id="rId300"/>
-    <hyperlink ref="Q11" r:id="rId301"/>
-    <hyperlink ref="Q8" r:id="rId302"/>
-    <hyperlink ref="G5" r:id="rId303"/>
+    <hyperlink ref="Q113" r:id="rId293"/>
+    <hyperlink ref="Q104" r:id="rId294"/>
+    <hyperlink ref="Q103" r:id="rId295"/>
+    <hyperlink ref="Q87" r:id="rId296"/>
+    <hyperlink ref="Q75" r:id="rId297"/>
+    <hyperlink ref="Q74" r:id="rId298"/>
+    <hyperlink ref="Q44" r:id="rId299"/>
+    <hyperlink ref="Q11" r:id="rId300"/>
+    <hyperlink ref="Q8" r:id="rId301"/>
+    <hyperlink ref="G5" r:id="rId302"/>
+    <hyperlink ref="G88" r:id="rId303" display="www.ttz-bremerhaven.de"/>
     <hyperlink ref="G89" r:id="rId304" display="www.ttz-bremerhaven.de"/>
-    <hyperlink ref="G90" r:id="rId305" display="www.ttz-bremerhaven.de"/>
-    <hyperlink ref="G91" r:id="rId306" display="www.africaportal.org"/>
-    <hyperlink ref="R44" r:id="rId307"/>
-    <hyperlink ref="R104" r:id="rId308"/>
+    <hyperlink ref="G90" r:id="rId305" display="www.africaportal.org"/>
+    <hyperlink ref="R44" r:id="rId306"/>
+    <hyperlink ref="R103" r:id="rId307"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId309"/>
-  <legacyDrawing r:id="rId310"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId308"/>
+  <legacyDrawing r:id="rId309"/>
 </worksheet>
 </file>
 
